--- a/data/sra_metadata/SRP199742_SLX15026_GEP00009.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15026_GEP00009.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27700" windowHeight="17320" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27700" windowHeight="17320" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="TargetedSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1187,13 +1187,936 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>DesireEditedSequences</t>
-  </si>
-  <si>
     <t>The name of the sequence</t>
   </si>
   <si>
     <t>The sequence</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guide@guide_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This name must match</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Amplicon@amplicon_name</t>
+    </r>
+  </si>
+  <si>
+    <t>FTO.9</t>
+  </si>
+  <si>
+    <t>TCCAGGGCGAGGGATCTAC</t>
+  </si>
+  <si>
+    <t>GCCATCAAACCAAGCCCTTC</t>
+  </si>
+  <si>
+    <t>IRX5.1</t>
+  </si>
+  <si>
+    <t>CCATGCCCGTGTGTG</t>
+  </si>
+  <si>
+    <t>TGGAGGTGCGAGTTGTAGC</t>
+  </si>
+  <si>
+    <t>FTO</t>
+  </si>
+  <si>
+    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Cas9</t>
+  </si>
+  <si>
+    <t>IRX5</t>
+  </si>
+  <si>
+    <t>CCTCGCTGGCGCTCTACTCGTGC</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000016.10 </t>
+  </si>
+  <si>
+    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
+  </si>
+  <si>
+    <t>NC_000016.10 </t>
+  </si>
+  <si>
+    <t>This gene encodes a member of the iroquois homeobox gene family, which are involved in several embryonic developmental processes. Knockout mice lacking this gene show that it is required for retinal cone bipolar cell differentiation, and that it negatively regulates potassium channel gene expression in the heart to ensure coordinated cardiac repolarization. Alternatively spliced transcript variants encoding different isoforms have been found for this gene. </t>
+  </si>
+  <si>
+    <t>FLD0001</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A1</t>
+  </si>
+  <si>
+    <t>Fluidigm</t>
+  </si>
+  <si>
+    <t>SLX-15026</t>
+  </si>
+  <si>
+    <t>Hues9</t>
+  </si>
+  <si>
+    <t>10H_P29_IRX5</t>
+  </si>
+  <si>
+    <t>FLD0002</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B1</t>
+  </si>
+  <si>
+    <t>FLD0003</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C1</t>
+  </si>
+  <si>
+    <t>FLD0004</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D1</t>
+  </si>
+  <si>
+    <t>FLD0005</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E1</t>
+  </si>
+  <si>
+    <t>FLD0006</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F1</t>
+  </si>
+  <si>
+    <t>FLD0007</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G1</t>
+  </si>
+  <si>
+    <t>FLD0008</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H1</t>
+  </si>
+  <si>
+    <t>FLD0009</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A2</t>
+  </si>
+  <si>
+    <t>FLD0010</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B2</t>
+  </si>
+  <si>
+    <t>FLD0011</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C2</t>
+  </si>
+  <si>
+    <t>FLD0012</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D2</t>
+  </si>
+  <si>
+    <t>FLD0013</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E2</t>
+  </si>
+  <si>
+    <t>FLD0014</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F2</t>
+  </si>
+  <si>
+    <t>FLD0015</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G2</t>
+  </si>
+  <si>
+    <t>FLD0016</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H2</t>
+  </si>
+  <si>
+    <t>FLD0017</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A3</t>
+  </si>
+  <si>
+    <t>FLD0018</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B3</t>
+  </si>
+  <si>
+    <t>FLD0019</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C3</t>
+  </si>
+  <si>
+    <t>FLD0020</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D3</t>
+  </si>
+  <si>
+    <t>FLD0021</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E3</t>
+  </si>
+  <si>
+    <t>FLD0022</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F3</t>
+  </si>
+  <si>
+    <t>FLD0023</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G3</t>
+  </si>
+  <si>
+    <t>FLD0024</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H3</t>
+  </si>
+  <si>
+    <t>FLD0025</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A4</t>
+  </si>
+  <si>
+    <t>FLD0026</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B4</t>
+  </si>
+  <si>
+    <t>FLD0027</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C4</t>
+  </si>
+  <si>
+    <t>FLD0028</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D4</t>
+  </si>
+  <si>
+    <t>FLD0029</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E4</t>
+  </si>
+  <si>
+    <t>FLD0030</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F4</t>
+  </si>
+  <si>
+    <t>FLD0031</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G4</t>
+  </si>
+  <si>
+    <t>FLD0032</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H4</t>
+  </si>
+  <si>
+    <t>FLD0033</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A5</t>
+  </si>
+  <si>
+    <t>FLD0034</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B5</t>
+  </si>
+  <si>
+    <t>FLD0035</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C5</t>
+  </si>
+  <si>
+    <t>FLD0036</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D5</t>
+  </si>
+  <si>
+    <t>FLD0037</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E5</t>
+  </si>
+  <si>
+    <t>FLD0038</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F5</t>
+  </si>
+  <si>
+    <t>FLD0039</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G5</t>
+  </si>
+  <si>
+    <t>FLD0040</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H5</t>
+  </si>
+  <si>
+    <t>FLD0041</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A6</t>
+  </si>
+  <si>
+    <t>FLD0042</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B6</t>
+  </si>
+  <si>
+    <t>FLD0043</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C6</t>
+  </si>
+  <si>
+    <t>FLD0044</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D6</t>
+  </si>
+  <si>
+    <t>FLD0045</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E6</t>
+  </si>
+  <si>
+    <t>FLD0046</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F6</t>
+  </si>
+  <si>
+    <t>FLD0047</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G6</t>
+  </si>
+  <si>
+    <t>FLD0048</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H6</t>
+  </si>
+  <si>
+    <t>FLD0049</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A7</t>
+  </si>
+  <si>
+    <t>FLD0050</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B7</t>
+  </si>
+  <si>
+    <t>FLD0051</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C7</t>
+  </si>
+  <si>
+    <t>FLD0052</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D7</t>
+  </si>
+  <si>
+    <t>FLD0053</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E7</t>
+  </si>
+  <si>
+    <t>FLD0054</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F7</t>
+  </si>
+  <si>
+    <t>FLD0055</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G7</t>
+  </si>
+  <si>
+    <t>FLD0056</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H7</t>
+  </si>
+  <si>
+    <t>FLD0057</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A8</t>
+  </si>
+  <si>
+    <t>FLD0058</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B8</t>
+  </si>
+  <si>
+    <t>FLD0059</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C8</t>
+  </si>
+  <si>
+    <t>FLD0060</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D8</t>
+  </si>
+  <si>
+    <t>FLD0061</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E8</t>
+  </si>
+  <si>
+    <t>FLD0062</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F8</t>
+  </si>
+  <si>
+    <t>FLD0063</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G8</t>
+  </si>
+  <si>
+    <t>FLD0064</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H8</t>
+  </si>
+  <si>
+    <t>FLD0065</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A9</t>
+  </si>
+  <si>
+    <t>FLD0066</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B9</t>
+  </si>
+  <si>
+    <t>FLD0067</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C9</t>
+  </si>
+  <si>
+    <t>FLD0068</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D9</t>
+  </si>
+  <si>
+    <t>FLD0069</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E9</t>
+  </si>
+  <si>
+    <t>FLD0070</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F9</t>
+  </si>
+  <si>
+    <t>FLD0071</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G9</t>
+  </si>
+  <si>
+    <t>FLD0072</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H9</t>
+  </si>
+  <si>
+    <t>FLD0073</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A10</t>
+  </si>
+  <si>
+    <t>FLD0074</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B10</t>
+  </si>
+  <si>
+    <t>FLD0075</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C10</t>
+  </si>
+  <si>
+    <t>FLD0076</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D10</t>
+  </si>
+  <si>
+    <t>FLD0077</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E10</t>
+  </si>
+  <si>
+    <t>FLD0078</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F10</t>
+  </si>
+  <si>
+    <t>FLD0079</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G10</t>
+  </si>
+  <si>
+    <t>FLD0080</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H10</t>
+  </si>
+  <si>
+    <t>FLD0081</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A11</t>
+  </si>
+  <si>
+    <t>FLD0082</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B11</t>
+  </si>
+  <si>
+    <t>FLD0083</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C11</t>
+  </si>
+  <si>
+    <t>FLD0084</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D11</t>
+  </si>
+  <si>
+    <t>FLD0085</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E11</t>
+  </si>
+  <si>
+    <t>FLD0086</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F11</t>
+  </si>
+  <si>
+    <t>FLD0087</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G11</t>
+  </si>
+  <si>
+    <t>FLD0088</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H11</t>
+  </si>
+  <si>
+    <t>FLD0089</t>
+  </si>
+  <si>
+    <t>IRX5_KO_A12</t>
+  </si>
+  <si>
+    <t>FLD0090</t>
+  </si>
+  <si>
+    <t>IRX5_KO_B12</t>
+  </si>
+  <si>
+    <t>FLD0091</t>
+  </si>
+  <si>
+    <t>IRX5_KO_C12</t>
+  </si>
+  <si>
+    <t>FLD0092</t>
+  </si>
+  <si>
+    <t>IRX5_KO_D12</t>
+  </si>
+  <si>
+    <t>FLD0093</t>
+  </si>
+  <si>
+    <t>IRX5_KO_E12</t>
+  </si>
+  <si>
+    <t>FLD0094</t>
+  </si>
+  <si>
+    <t>IRX5_KO_F12</t>
+  </si>
+  <si>
+    <t>FLD0095</t>
+  </si>
+  <si>
+    <t>IRX5_KO_G12</t>
+  </si>
+  <si>
+    <t>FLD0096</t>
+  </si>
+  <si>
+    <t>IRX5_KO_H12</t>
+  </si>
+  <si>
+    <t>plate_02</t>
+  </si>
+  <si>
+    <t>FLD0289</t>
+  </si>
+  <si>
+    <t>FTO_1_A1</t>
+  </si>
+  <si>
+    <t>10H_P13_FTO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0290</t>
+  </si>
+  <si>
+    <t>FTO_1_B1</t>
+  </si>
+  <si>
+    <t>FLD0291</t>
+  </si>
+  <si>
+    <t>FTO_1_C1</t>
+  </si>
+  <si>
+    <t>FLD0292</t>
+  </si>
+  <si>
+    <t>FTO_1_D1</t>
+  </si>
+  <si>
+    <t>FLD0293</t>
+  </si>
+  <si>
+    <t>FTO_1_E1</t>
+  </si>
+  <si>
+    <t>FLD0294</t>
+  </si>
+  <si>
+    <t>FTO_1_F1</t>
+  </si>
+  <si>
+    <t>FLD0295</t>
+  </si>
+  <si>
+    <t>FTO_1_A2</t>
+  </si>
+  <si>
+    <t>FLD0296</t>
+  </si>
+  <si>
+    <t>FTO_1_B2</t>
+  </si>
+  <si>
+    <t>FLD0297</t>
+  </si>
+  <si>
+    <t>FTO_1_C2</t>
+  </si>
+  <si>
+    <t>FLD0298</t>
+  </si>
+  <si>
+    <t>FTO_1_D2</t>
+  </si>
+  <si>
+    <t>FLD0299</t>
+  </si>
+  <si>
+    <t>FTO_1_E2</t>
+  </si>
+  <si>
+    <t>FLD0300</t>
+  </si>
+  <si>
+    <t>FTO_1_F2</t>
+  </si>
+  <si>
+    <t>FLD0301</t>
+  </si>
+  <si>
+    <t>FTO_2_A1</t>
+  </si>
+  <si>
+    <t>FLD0302</t>
+  </si>
+  <si>
+    <t>FTO_2_B1</t>
+  </si>
+  <si>
+    <t>FLD0303</t>
+  </si>
+  <si>
+    <t>FTO_2_C1</t>
+  </si>
+  <si>
+    <t>FLD0304</t>
+  </si>
+  <si>
+    <t>FTO_2_D1</t>
+  </si>
+  <si>
+    <t>FLD0305</t>
+  </si>
+  <si>
+    <t>FTO_2_E1</t>
+  </si>
+  <si>
+    <t>FLD0306</t>
+  </si>
+  <si>
+    <t>FTO_2_F1</t>
+  </si>
+  <si>
+    <t>FLD0307</t>
+  </si>
+  <si>
+    <t>FTO_2_A2</t>
+  </si>
+  <si>
+    <t>FLD0308</t>
+  </si>
+  <si>
+    <t>FTO_2_B2</t>
+  </si>
+  <si>
+    <t>FLD0309</t>
+  </si>
+  <si>
+    <t>FTO_2_C2</t>
+  </si>
+  <si>
+    <t>FLD0310</t>
+  </si>
+  <si>
+    <t>FTO_2_D2</t>
+  </si>
+  <si>
+    <t>FLD0311</t>
+  </si>
+  <si>
+    <t>FTO_2_E2</t>
+  </si>
+  <si>
+    <t>FLD0312</t>
+  </si>
+  <si>
+    <t>FTO_2_F2</t>
+  </si>
+  <si>
+    <t>FLD0313</t>
+  </si>
+  <si>
+    <t>FTO_3_A1</t>
+  </si>
+  <si>
+    <t>FLD0314</t>
+  </si>
+  <si>
+    <t>FTO_3_B1</t>
+  </si>
+  <si>
+    <t>FLD0315</t>
+  </si>
+  <si>
+    <t>FTO_3_C1</t>
+  </si>
+  <si>
+    <t>FLD0316</t>
+  </si>
+  <si>
+    <t>FTO_3_D1</t>
+  </si>
+  <si>
+    <t>FLD0317</t>
+  </si>
+  <si>
+    <t>FTO_3_E1</t>
+  </si>
+  <si>
+    <t>FLD0318</t>
+  </si>
+  <si>
+    <t>FTO_3_F1</t>
+  </si>
+  <si>
+    <t>FLD0319</t>
+  </si>
+  <si>
+    <t>FTO_3_A2</t>
+  </si>
+  <si>
+    <t>FLD0320</t>
+  </si>
+  <si>
+    <t>FTO_3_B2</t>
+  </si>
+  <si>
+    <t>FLD0321</t>
+  </si>
+  <si>
+    <t>FTO_3_C2</t>
+  </si>
+  <si>
+    <t>FLD0322</t>
+  </si>
+  <si>
+    <t>FTO_3_D2</t>
+  </si>
+  <si>
+    <t>FLD0323</t>
+  </si>
+  <si>
+    <t>FTO_3_E2</t>
+  </si>
+  <si>
+    <t>FLD0324</t>
+  </si>
+  <si>
+    <t>FTO_3_F2</t>
+  </si>
+  <si>
+    <t>FTO.9.in</t>
+  </si>
+  <si>
+    <t>FTO_WT</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_2_sites</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_target_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_PAM_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>TargetedSearch</t>
   </si>
   <si>
     <r>
@@ -1206,7 +2129,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>DesireEditedSequences</t>
+      <t>TargetedSearch</t>
     </r>
     <r>
       <rPr>
@@ -1216,929 +2139,6 @@
       </rPr>
       <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
     </r>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>The name of the Amplicon. This name must be unique within this project.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This name must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guide@guide_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This name must match</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Amplicon@amplicon_name</t>
-    </r>
-  </si>
-  <si>
-    <t>FTO.9</t>
-  </si>
-  <si>
-    <t>TCCAGGGCGAGGGATCTAC</t>
-  </si>
-  <si>
-    <t>GCCATCAAACCAAGCCCTTC</t>
-  </si>
-  <si>
-    <t>IRX5.1</t>
-  </si>
-  <si>
-    <t>CCATGCCCGTGTGTG</t>
-  </si>
-  <si>
-    <t>TGGAGGTGCGAGTTGTAGC</t>
-  </si>
-  <si>
-    <t>FTO</t>
-  </si>
-  <si>
-    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>Cas9</t>
-  </si>
-  <si>
-    <t>IRX5</t>
-  </si>
-  <si>
-    <t>CCTCGCTGGCGCTCTACTCGTGC</t>
-  </si>
-  <si>
-    <t>CCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_000016.10 </t>
-  </si>
-  <si>
-    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
-  </si>
-  <si>
-    <t>NC_000016.10 </t>
-  </si>
-  <si>
-    <t>This gene encodes a member of the iroquois homeobox gene family, which are involved in several embryonic developmental processes. Knockout mice lacking this gene show that it is required for retinal cone bipolar cell differentiation, and that it negatively regulates potassium channel gene expression in the heart to ensure coordinated cardiac repolarization. Alternatively spliced transcript variants encoding different isoforms have been found for this gene. </t>
-  </si>
-  <si>
-    <t>FLD0001</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A1</t>
-  </si>
-  <si>
-    <t>Fluidigm</t>
-  </si>
-  <si>
-    <t>SLX-15026</t>
-  </si>
-  <si>
-    <t>Hues9</t>
-  </si>
-  <si>
-    <t>10H_P29_IRX5</t>
-  </si>
-  <si>
-    <t>FLD0002</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B1</t>
-  </si>
-  <si>
-    <t>FLD0003</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C1</t>
-  </si>
-  <si>
-    <t>FLD0004</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D1</t>
-  </si>
-  <si>
-    <t>FLD0005</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E1</t>
-  </si>
-  <si>
-    <t>FLD0006</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F1</t>
-  </si>
-  <si>
-    <t>FLD0007</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G1</t>
-  </si>
-  <si>
-    <t>FLD0008</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H1</t>
-  </si>
-  <si>
-    <t>FLD0009</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A2</t>
-  </si>
-  <si>
-    <t>FLD0010</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B2</t>
-  </si>
-  <si>
-    <t>FLD0011</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C2</t>
-  </si>
-  <si>
-    <t>FLD0012</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D2</t>
-  </si>
-  <si>
-    <t>FLD0013</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E2</t>
-  </si>
-  <si>
-    <t>FLD0014</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F2</t>
-  </si>
-  <si>
-    <t>FLD0015</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G2</t>
-  </si>
-  <si>
-    <t>FLD0016</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H2</t>
-  </si>
-  <si>
-    <t>FLD0017</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A3</t>
-  </si>
-  <si>
-    <t>FLD0018</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B3</t>
-  </si>
-  <si>
-    <t>FLD0019</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C3</t>
-  </si>
-  <si>
-    <t>FLD0020</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D3</t>
-  </si>
-  <si>
-    <t>FLD0021</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E3</t>
-  </si>
-  <si>
-    <t>FLD0022</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F3</t>
-  </si>
-  <si>
-    <t>FLD0023</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G3</t>
-  </si>
-  <si>
-    <t>FLD0024</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H3</t>
-  </si>
-  <si>
-    <t>FLD0025</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A4</t>
-  </si>
-  <si>
-    <t>FLD0026</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B4</t>
-  </si>
-  <si>
-    <t>FLD0027</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C4</t>
-  </si>
-  <si>
-    <t>FLD0028</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D4</t>
-  </si>
-  <si>
-    <t>FLD0029</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E4</t>
-  </si>
-  <si>
-    <t>FLD0030</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F4</t>
-  </si>
-  <si>
-    <t>FLD0031</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G4</t>
-  </si>
-  <si>
-    <t>FLD0032</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H4</t>
-  </si>
-  <si>
-    <t>FLD0033</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A5</t>
-  </si>
-  <si>
-    <t>FLD0034</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B5</t>
-  </si>
-  <si>
-    <t>FLD0035</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C5</t>
-  </si>
-  <si>
-    <t>FLD0036</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D5</t>
-  </si>
-  <si>
-    <t>FLD0037</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E5</t>
-  </si>
-  <si>
-    <t>FLD0038</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F5</t>
-  </si>
-  <si>
-    <t>FLD0039</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G5</t>
-  </si>
-  <si>
-    <t>FLD0040</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H5</t>
-  </si>
-  <si>
-    <t>FLD0041</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A6</t>
-  </si>
-  <si>
-    <t>FLD0042</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B6</t>
-  </si>
-  <si>
-    <t>FLD0043</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C6</t>
-  </si>
-  <si>
-    <t>FLD0044</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D6</t>
-  </si>
-  <si>
-    <t>FLD0045</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E6</t>
-  </si>
-  <si>
-    <t>FLD0046</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F6</t>
-  </si>
-  <si>
-    <t>FLD0047</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G6</t>
-  </si>
-  <si>
-    <t>FLD0048</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H6</t>
-  </si>
-  <si>
-    <t>FLD0049</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A7</t>
-  </si>
-  <si>
-    <t>FLD0050</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B7</t>
-  </si>
-  <si>
-    <t>FLD0051</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C7</t>
-  </si>
-  <si>
-    <t>FLD0052</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D7</t>
-  </si>
-  <si>
-    <t>FLD0053</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E7</t>
-  </si>
-  <si>
-    <t>FLD0054</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F7</t>
-  </si>
-  <si>
-    <t>FLD0055</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G7</t>
-  </si>
-  <si>
-    <t>FLD0056</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H7</t>
-  </si>
-  <si>
-    <t>FLD0057</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A8</t>
-  </si>
-  <si>
-    <t>FLD0058</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B8</t>
-  </si>
-  <si>
-    <t>FLD0059</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C8</t>
-  </si>
-  <si>
-    <t>FLD0060</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D8</t>
-  </si>
-  <si>
-    <t>FLD0061</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E8</t>
-  </si>
-  <si>
-    <t>FLD0062</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F8</t>
-  </si>
-  <si>
-    <t>FLD0063</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G8</t>
-  </si>
-  <si>
-    <t>FLD0064</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H8</t>
-  </si>
-  <si>
-    <t>FLD0065</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A9</t>
-  </si>
-  <si>
-    <t>FLD0066</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B9</t>
-  </si>
-  <si>
-    <t>FLD0067</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C9</t>
-  </si>
-  <si>
-    <t>FLD0068</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D9</t>
-  </si>
-  <si>
-    <t>FLD0069</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E9</t>
-  </si>
-  <si>
-    <t>FLD0070</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F9</t>
-  </si>
-  <si>
-    <t>FLD0071</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G9</t>
-  </si>
-  <si>
-    <t>FLD0072</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H9</t>
-  </si>
-  <si>
-    <t>FLD0073</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A10</t>
-  </si>
-  <si>
-    <t>FLD0074</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B10</t>
-  </si>
-  <si>
-    <t>FLD0075</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C10</t>
-  </si>
-  <si>
-    <t>FLD0076</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D10</t>
-  </si>
-  <si>
-    <t>FLD0077</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E10</t>
-  </si>
-  <si>
-    <t>FLD0078</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F10</t>
-  </si>
-  <si>
-    <t>FLD0079</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G10</t>
-  </si>
-  <si>
-    <t>FLD0080</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H10</t>
-  </si>
-  <si>
-    <t>FLD0081</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A11</t>
-  </si>
-  <si>
-    <t>FLD0082</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B11</t>
-  </si>
-  <si>
-    <t>FLD0083</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C11</t>
-  </si>
-  <si>
-    <t>FLD0084</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D11</t>
-  </si>
-  <si>
-    <t>FLD0085</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E11</t>
-  </si>
-  <si>
-    <t>FLD0086</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F11</t>
-  </si>
-  <si>
-    <t>FLD0087</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G11</t>
-  </si>
-  <si>
-    <t>FLD0088</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H11</t>
-  </si>
-  <si>
-    <t>FLD0089</t>
-  </si>
-  <si>
-    <t>IRX5_KO_A12</t>
-  </si>
-  <si>
-    <t>FLD0090</t>
-  </si>
-  <si>
-    <t>IRX5_KO_B12</t>
-  </si>
-  <si>
-    <t>FLD0091</t>
-  </si>
-  <si>
-    <t>IRX5_KO_C12</t>
-  </si>
-  <si>
-    <t>FLD0092</t>
-  </si>
-  <si>
-    <t>IRX5_KO_D12</t>
-  </si>
-  <si>
-    <t>FLD0093</t>
-  </si>
-  <si>
-    <t>IRX5_KO_E12</t>
-  </si>
-  <si>
-    <t>FLD0094</t>
-  </si>
-  <si>
-    <t>IRX5_KO_F12</t>
-  </si>
-  <si>
-    <t>FLD0095</t>
-  </si>
-  <si>
-    <t>IRX5_KO_G12</t>
-  </si>
-  <si>
-    <t>FLD0096</t>
-  </si>
-  <si>
-    <t>IRX5_KO_H12</t>
-  </si>
-  <si>
-    <t>plate_02</t>
-  </si>
-  <si>
-    <t>FLD0289</t>
-  </si>
-  <si>
-    <t>FTO_1_A1</t>
-  </si>
-  <si>
-    <t>10H_P13_FTO</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0290</t>
-  </si>
-  <si>
-    <t>FTO_1_B1</t>
-  </si>
-  <si>
-    <t>FLD0291</t>
-  </si>
-  <si>
-    <t>FTO_1_C1</t>
-  </si>
-  <si>
-    <t>FLD0292</t>
-  </si>
-  <si>
-    <t>FTO_1_D1</t>
-  </si>
-  <si>
-    <t>FLD0293</t>
-  </si>
-  <si>
-    <t>FTO_1_E1</t>
-  </si>
-  <si>
-    <t>FLD0294</t>
-  </si>
-  <si>
-    <t>FTO_1_F1</t>
-  </si>
-  <si>
-    <t>FLD0295</t>
-  </si>
-  <si>
-    <t>FTO_1_A2</t>
-  </si>
-  <si>
-    <t>FLD0296</t>
-  </si>
-  <si>
-    <t>FTO_1_B2</t>
-  </si>
-  <si>
-    <t>FLD0297</t>
-  </si>
-  <si>
-    <t>FTO_1_C2</t>
-  </si>
-  <si>
-    <t>FLD0298</t>
-  </si>
-  <si>
-    <t>FTO_1_D2</t>
-  </si>
-  <si>
-    <t>FLD0299</t>
-  </si>
-  <si>
-    <t>FTO_1_E2</t>
-  </si>
-  <si>
-    <t>FLD0300</t>
-  </si>
-  <si>
-    <t>FTO_1_F2</t>
-  </si>
-  <si>
-    <t>FLD0301</t>
-  </si>
-  <si>
-    <t>FTO_2_A1</t>
-  </si>
-  <si>
-    <t>FLD0302</t>
-  </si>
-  <si>
-    <t>FTO_2_B1</t>
-  </si>
-  <si>
-    <t>FLD0303</t>
-  </si>
-  <si>
-    <t>FTO_2_C1</t>
-  </si>
-  <si>
-    <t>FLD0304</t>
-  </si>
-  <si>
-    <t>FTO_2_D1</t>
-  </si>
-  <si>
-    <t>FLD0305</t>
-  </si>
-  <si>
-    <t>FTO_2_E1</t>
-  </si>
-  <si>
-    <t>FLD0306</t>
-  </si>
-  <si>
-    <t>FTO_2_F1</t>
-  </si>
-  <si>
-    <t>FLD0307</t>
-  </si>
-  <si>
-    <t>FTO_2_A2</t>
-  </si>
-  <si>
-    <t>FLD0308</t>
-  </si>
-  <si>
-    <t>FTO_2_B2</t>
-  </si>
-  <si>
-    <t>FLD0309</t>
-  </si>
-  <si>
-    <t>FTO_2_C2</t>
-  </si>
-  <si>
-    <t>FLD0310</t>
-  </si>
-  <si>
-    <t>FTO_2_D2</t>
-  </si>
-  <si>
-    <t>FLD0311</t>
-  </si>
-  <si>
-    <t>FTO_2_E2</t>
-  </si>
-  <si>
-    <t>FLD0312</t>
-  </si>
-  <si>
-    <t>FTO_2_F2</t>
-  </si>
-  <si>
-    <t>FLD0313</t>
-  </si>
-  <si>
-    <t>FTO_3_A1</t>
-  </si>
-  <si>
-    <t>FLD0314</t>
-  </si>
-  <si>
-    <t>FTO_3_B1</t>
-  </si>
-  <si>
-    <t>FLD0315</t>
-  </si>
-  <si>
-    <t>FTO_3_C1</t>
-  </si>
-  <si>
-    <t>FLD0316</t>
-  </si>
-  <si>
-    <t>FTO_3_D1</t>
-  </si>
-  <si>
-    <t>FLD0317</t>
-  </si>
-  <si>
-    <t>FTO_3_E1</t>
-  </si>
-  <si>
-    <t>FLD0318</t>
-  </si>
-  <si>
-    <t>FTO_3_F1</t>
-  </si>
-  <si>
-    <t>FLD0319</t>
-  </si>
-  <si>
-    <t>FTO_3_A2</t>
-  </si>
-  <si>
-    <t>FLD0320</t>
-  </si>
-  <si>
-    <t>FTO_3_B2</t>
-  </si>
-  <si>
-    <t>FLD0321</t>
-  </si>
-  <si>
-    <t>FTO_3_C2</t>
-  </si>
-  <si>
-    <t>FLD0322</t>
-  </si>
-  <si>
-    <t>FTO_3_D2</t>
-  </si>
-  <si>
-    <t>FLD0323</t>
-  </si>
-  <si>
-    <t>FTO_3_E2</t>
-  </si>
-  <si>
-    <t>FLD0324</t>
-  </si>
-  <si>
-    <t>FTO_3_F2</t>
-  </si>
-  <si>
-    <t>FTO.9.in</t>
-  </si>
-  <si>
-    <t>FTO_WT</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_2_sites</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_target_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_PAM_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +5545,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -5759,10 +5759,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6160,18 +6160,18 @@
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="1" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>244</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6179,7 +6179,7 @@
         <v>239</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>240</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6227,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6273,13 +6273,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2">
         <v>16</v>
@@ -6294,18 +6294,18 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2">
         <v>16</v>
@@ -6320,7 +6320,7 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6400,16 +6400,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E2" s="2">
         <v>90</v>
@@ -6418,21 +6418,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6497,7 +6497,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -6544,10 +6544,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>238</v>
@@ -6565,7 +6565,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I2" s="14">
         <v>53704130</v>
@@ -6574,7 +6574,7 @@
         <v>53704148</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L2" s="14">
         <v>53704291</v>
@@ -6585,10 +6585,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -6606,7 +6606,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I3" s="14">
         <v>54931181</v>
@@ -6615,7 +6615,7 @@
         <v>54931195</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L3" s="14">
         <v>54931377</v>
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6737,25 +6737,25 @@
         <v>84</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>41</v>
@@ -6772,25 +6772,25 @@
         <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>41</v>
@@ -6807,25 +6807,25 @@
         <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>41</v>
@@ -6842,25 +6842,25 @@
         <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>41</v>
@@ -6877,25 +6877,25 @@
         <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>41</v>
@@ -6912,25 +6912,25 @@
         <v>89</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>41</v>
@@ -6947,25 +6947,25 @@
         <v>90</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>41</v>
@@ -6982,25 +6982,25 @@
         <v>91</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>41</v>
@@ -7017,25 +7017,25 @@
         <v>92</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>41</v>
@@ -7052,25 +7052,25 @@
         <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>41</v>
@@ -7087,25 +7087,25 @@
         <v>94</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>41</v>
@@ -7122,25 +7122,25 @@
         <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>41</v>
@@ -7157,25 +7157,25 @@
         <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>41</v>
@@ -7192,25 +7192,25 @@
         <v>97</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>41</v>
@@ -7227,25 +7227,25 @@
         <v>98</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>41</v>
@@ -7262,25 +7262,25 @@
         <v>99</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>41</v>
@@ -7297,25 +7297,25 @@
         <v>100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>41</v>
@@ -7332,25 +7332,25 @@
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>41</v>
@@ -7367,25 +7367,25 @@
         <v>102</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>41</v>
@@ -7402,25 +7402,25 @@
         <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>41</v>
@@ -7437,25 +7437,25 @@
         <v>104</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>41</v>
@@ -7472,25 +7472,25 @@
         <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>41</v>
@@ -7507,25 +7507,25 @@
         <v>106</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>41</v>
@@ -7542,25 +7542,25 @@
         <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>41</v>
@@ -7577,25 +7577,25 @@
         <v>108</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>41</v>
@@ -7612,25 +7612,25 @@
         <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>41</v>
@@ -7647,25 +7647,25 @@
         <v>110</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>41</v>
@@ -7682,25 +7682,25 @@
         <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>41</v>
@@ -7717,25 +7717,25 @@
         <v>112</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>41</v>
@@ -7752,25 +7752,25 @@
         <v>113</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>41</v>
@@ -7787,25 +7787,25 @@
         <v>114</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>41</v>
@@ -7822,25 +7822,25 @@
         <v>115</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>41</v>
@@ -7857,25 +7857,25 @@
         <v>116</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>41</v>
@@ -7892,25 +7892,25 @@
         <v>117</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>41</v>
@@ -7927,25 +7927,25 @@
         <v>118</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>41</v>
@@ -7962,25 +7962,25 @@
         <v>119</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>41</v>
@@ -7997,25 +7997,25 @@
         <v>120</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>41</v>
@@ -8032,25 +8032,25 @@
         <v>121</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>41</v>
@@ -8067,25 +8067,25 @@
         <v>122</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>41</v>
@@ -8102,25 +8102,25 @@
         <v>123</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>41</v>
@@ -8137,25 +8137,25 @@
         <v>124</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>41</v>
@@ -8172,25 +8172,25 @@
         <v>125</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>41</v>
@@ -8207,25 +8207,25 @@
         <v>126</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>41</v>
@@ -8242,25 +8242,25 @@
         <v>127</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>41</v>
@@ -8277,25 +8277,25 @@
         <v>128</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>41</v>
@@ -8312,25 +8312,25 @@
         <v>129</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>41</v>
@@ -8347,25 +8347,25 @@
         <v>130</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G48" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>41</v>
@@ -8382,25 +8382,25 @@
         <v>131</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>41</v>
@@ -8417,25 +8417,25 @@
         <v>132</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G50" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>41</v>
@@ -8452,25 +8452,25 @@
         <v>133</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G51" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>41</v>
@@ -8487,25 +8487,25 @@
         <v>134</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>41</v>
@@ -8522,25 +8522,25 @@
         <v>135</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>41</v>
@@ -8557,25 +8557,25 @@
         <v>136</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G54" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>41</v>
@@ -8592,25 +8592,25 @@
         <v>137</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G55" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>41</v>
@@ -8627,25 +8627,25 @@
         <v>138</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G56" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>41</v>
@@ -8662,25 +8662,25 @@
         <v>139</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G57" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>41</v>
@@ -8697,25 +8697,25 @@
         <v>140</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>41</v>
@@ -8732,25 +8732,25 @@
         <v>141</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G59" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>41</v>
@@ -8767,25 +8767,25 @@
         <v>142</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>41</v>
@@ -8802,25 +8802,25 @@
         <v>143</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>41</v>
@@ -8837,25 +8837,25 @@
         <v>144</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>41</v>
@@ -8872,25 +8872,25 @@
         <v>145</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>41</v>
@@ -8907,25 +8907,25 @@
         <v>146</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>41</v>
@@ -8942,25 +8942,25 @@
         <v>147</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G65" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>41</v>
@@ -8977,25 +8977,25 @@
         <v>148</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>41</v>
@@ -9012,25 +9012,25 @@
         <v>149</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>41</v>
@@ -9047,25 +9047,25 @@
         <v>150</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>41</v>
@@ -9082,25 +9082,25 @@
         <v>151</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>41</v>
@@ -9117,25 +9117,25 @@
         <v>152</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G70" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>41</v>
@@ -9152,25 +9152,25 @@
         <v>153</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G71" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K71" s="2" t="s">
         <v>41</v>
@@ -9187,25 +9187,25 @@
         <v>154</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G72" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>41</v>
@@ -9222,25 +9222,25 @@
         <v>155</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G73" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>41</v>
@@ -9257,25 +9257,25 @@
         <v>156</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>41</v>
@@ -9292,25 +9292,25 @@
         <v>157</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G75" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>41</v>
@@ -9327,25 +9327,25 @@
         <v>158</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G76" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>41</v>
@@ -9362,25 +9362,25 @@
         <v>159</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>41</v>
@@ -9397,25 +9397,25 @@
         <v>160</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G78" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>41</v>
@@ -9432,25 +9432,25 @@
         <v>161</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G79" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>41</v>
@@ -9467,25 +9467,25 @@
         <v>162</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>41</v>
@@ -9502,25 +9502,25 @@
         <v>163</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G81" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>41</v>
@@ -9537,25 +9537,25 @@
         <v>164</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G82" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>41</v>
@@ -9572,25 +9572,25 @@
         <v>165</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G83" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>41</v>
@@ -9607,25 +9607,25 @@
         <v>166</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G84" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K84" s="2" t="s">
         <v>41</v>
@@ -9642,25 +9642,25 @@
         <v>167</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>41</v>
@@ -9677,25 +9677,25 @@
         <v>168</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>41</v>
@@ -9712,25 +9712,25 @@
         <v>169</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G87" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>41</v>
@@ -9747,25 +9747,25 @@
         <v>170</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>41</v>
@@ -9782,25 +9782,25 @@
         <v>171</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G89" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>41</v>
@@ -9817,25 +9817,25 @@
         <v>172</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G90" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>41</v>
@@ -9852,25 +9852,25 @@
         <v>173</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G91" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>41</v>
@@ -9887,25 +9887,25 @@
         <v>174</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G92" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>41</v>
@@ -9922,25 +9922,25 @@
         <v>175</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>41</v>
@@ -9957,25 +9957,25 @@
         <v>176</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G94" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>41</v>
@@ -9992,25 +9992,25 @@
         <v>177</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G95" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>41</v>
@@ -10027,25 +10027,25 @@
         <v>178</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G96" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>41</v>
@@ -10062,25 +10062,25 @@
         <v>179</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G97" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>41</v>
@@ -10091,31 +10091,31 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>41</v>
@@ -10126,31 +10126,31 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>41</v>
@@ -10161,31 +10161,31 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>41</v>
@@ -10196,31 +10196,31 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>41</v>
@@ -10231,31 +10231,31 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>41</v>
@@ -10266,31 +10266,31 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>41</v>
@@ -10301,31 +10301,31 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>41</v>
@@ -10336,31 +10336,31 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>168</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>41</v>
@@ -10371,31 +10371,31 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>41</v>
@@ -10406,31 +10406,31 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>41</v>
@@ -10441,31 +10441,31 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>41</v>
@@ -10476,31 +10476,31 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>41</v>
@@ -10511,31 +10511,31 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>41</v>
@@ -10546,31 +10546,31 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>41</v>
@@ -10581,31 +10581,31 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>157</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>41</v>
@@ -10616,31 +10616,31 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>41</v>
@@ -10651,31 +10651,31 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>41</v>
@@ -10686,31 +10686,31 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>41</v>
@@ -10721,31 +10721,31 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>41</v>
@@ -10756,31 +10756,31 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>41</v>
@@ -10791,31 +10791,31 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>41</v>
@@ -10826,31 +10826,31 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>41</v>
@@ -10861,31 +10861,31 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>41</v>
@@ -10896,31 +10896,31 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>41</v>
@@ -10931,31 +10931,31 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>41</v>
@@ -10966,31 +10966,31 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>41</v>
@@ -11001,31 +11001,31 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>41</v>
@@ -11036,31 +11036,31 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>41</v>
@@ -11071,31 +11071,31 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>41</v>
@@ -11106,31 +11106,31 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>41</v>
@@ -11141,31 +11141,31 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>41</v>
@@ -11176,31 +11176,31 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>171</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>41</v>
@@ -11211,31 +11211,31 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>41</v>
@@ -11246,31 +11246,31 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>41</v>
@@ -11281,31 +11281,31 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>41</v>
@@ -11316,31 +11316,31 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>41</v>
@@ -11502,7 +11502,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>239</v>
@@ -11513,46 +11513,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11588,9 +11588,7 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/data/sra_metadata/SRP199742_SLX15026_GEP00009.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15026_GEP00009.xlsx
@@ -2137,7 +2137,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+      <t xml:space="preserve"> is a list of sequences that the reads are counted against. If looking for particular gene edits, the desired edited sequences should be put in here. If no sequence is provided, the amplicon as identified by the provided primer sequences will be considered for counting reads</t>
     </r>
   </si>
 </sst>
@@ -6158,7 +6158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="1" t="s">
         <v>543</v>
       </c>
